--- a/data/georgia_census/imereti/kutaisi/population_total.xlsx
+++ b/data/georgia_census/imereti/kutaisi/population_total.xlsx
@@ -1293,13 +1293,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32E9088D-3F78-478F-B680-ECB6C5E87E9C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{111D2F56-9B16-42FF-93FC-A3A5D0FE825D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86938965-474F-491C-A13B-2B8CDA0FE975}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{280C4549-89EC-49F1-ACA8-BD6F63CBC5FB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67DE8403-F970-4726-BA8B-50ED3F2A8663}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F9F2DDC-E1B6-4601-9AF0-84EC7F177768}"/>
 </file>